--- a/COGS.xlsx
+++ b/COGS.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
@@ -407,9 +407,6 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,21 +414,12 @@
         <v>Particulars</v>
       </c>
       <c r="B1" t="str">
-        <v>Apr-24</v>
+        <v>Jan-25</v>
       </c>
       <c r="C1" t="str">
         <v/>
       </c>
       <c r="D1" t="str">
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <v>May-24</v>
-      </c>
-      <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
         <v/>
       </c>
     </row>
@@ -446,15 +434,6 @@
         <v>Rate</v>
       </c>
       <c r="D2" t="str">
-        <v>Value</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Rate</v>
-      </c>
-      <c r="G2" t="str">
         <v>Value</v>
       </c>
     </row>
@@ -471,37 +450,19 @@
       <c r="D3" t="str">
         <v/>
       </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Opening Stock</v>
       </c>
       <c r="B4">
-        <v>163575</v>
+        <v>204505</v>
       </c>
       <c r="C4" t="str">
-        <v>100.77</v>
+        <v>98.30</v>
       </c>
       <c r="D4">
-        <v>16483853</v>
-      </c>
-      <c r="E4">
-        <v>173900</v>
-      </c>
-      <c r="F4" t="str">
-        <v>99.44</v>
-      </c>
-      <c r="G4">
-        <v>17292822</v>
+        <v>20102003</v>
       </c>
     </row>
     <row r="5">
@@ -509,22 +470,13 @@
         <v>Purchase</v>
       </c>
       <c r="B5">
-        <v>113950</v>
+        <v>110000</v>
       </c>
       <c r="C5" t="str">
-        <v>92.38</v>
+        <v>92.57</v>
       </c>
       <c r="D5">
-        <v>10526640</v>
-      </c>
-      <c r="E5">
-        <v>141125</v>
-      </c>
-      <c r="F5" t="str">
-        <v>90.99</v>
-      </c>
-      <c r="G5">
-        <v>12840665.54</v>
+        <v>10182400</v>
       </c>
     </row>
     <row r="6">
@@ -532,22 +484,13 @@
         <v>Sales</v>
       </c>
       <c r="B6">
-        <v>37950</v>
+        <v>39000</v>
       </c>
       <c r="C6" t="str">
-        <v>94.63</v>
+        <v>96.36</v>
       </c>
       <c r="D6">
-        <v>3591209</v>
-      </c>
-      <c r="E6">
-        <v>54225</v>
-      </c>
-      <c r="F6" t="str">
-        <v>90.36</v>
-      </c>
-      <c r="G6">
-        <v>4899771</v>
+        <v>3758040</v>
       </c>
     </row>
     <row r="7">
@@ -555,22 +498,13 @@
         <v>Closing Stock</v>
       </c>
       <c r="B7">
-        <v>173900</v>
+        <v>196685</v>
       </c>
       <c r="C7" t="str">
-        <v>99.44</v>
+        <v>98.53</v>
       </c>
       <c r="D7">
-        <v>17292822</v>
-      </c>
-      <c r="E7">
-        <v>191250</v>
-      </c>
-      <c r="F7" t="str">
-        <v>98.30</v>
-      </c>
-      <c r="G7">
-        <v>18799448</v>
+        <v>19380225</v>
       </c>
     </row>
     <row r="8">
@@ -578,22 +512,13 @@
         <v>Consumption HDPE</v>
       </c>
       <c r="B8">
-        <v>65675</v>
+        <v>78820</v>
       </c>
       <c r="C8" t="str">
-        <v>93.28</v>
+        <v>90.66</v>
       </c>
       <c r="D8">
-        <v>6126462</v>
-      </c>
-      <c r="E8">
-        <v>69550</v>
-      </c>
-      <c r="F8" t="str">
-        <v>92.51</v>
-      </c>
-      <c r="G8">
-        <v>6434268.539999999</v>
+        <v>7146138</v>
       </c>
     </row>
     <row r="9">
@@ -614,37 +539,19 @@
       <c r="D10" t="str">
         <v/>
       </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>Opening Stock</v>
       </c>
       <c r="B11">
-        <v>2645</v>
+        <v>2483</v>
       </c>
       <c r="C11" t="str">
-        <v>236.51</v>
+        <v>230.34</v>
       </c>
       <c r="D11">
-        <v>625575</v>
-      </c>
-      <c r="E11">
-        <v>2456</v>
-      </c>
-      <c r="F11" t="str">
-        <v>239.38</v>
-      </c>
-      <c r="G11">
-        <v>587917</v>
+        <v>571935</v>
       </c>
     </row>
     <row r="12">
@@ -652,844 +559,538 @@
         <v>Purchase</v>
       </c>
       <c r="B12">
-        <v>698</v>
+        <v>1574.7</v>
       </c>
       <c r="C12" t="str">
-        <v>221.98</v>
+        <v>234.48</v>
       </c>
       <c r="D12">
-        <v>154941</v>
-      </c>
-      <c r="E12">
-        <v>1254.9</v>
-      </c>
-      <c r="F12" t="str">
-        <v>211.07</v>
-      </c>
-      <c r="G12">
-        <v>264873.1</v>
+        <v>369238.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Closing Stock</v>
+        <v>Sales</v>
       </c>
       <c r="B13">
-        <v>2456</v>
+        <v>205</v>
       </c>
       <c r="C13" t="str">
-        <v>239.38</v>
+        <v>268.68</v>
       </c>
       <c r="D13">
-        <v>587917</v>
-      </c>
-      <c r="E13">
-        <v>2626</v>
-      </c>
-      <c r="F13" t="str">
-        <v>217.47</v>
-      </c>
-      <c r="G13">
-        <v>571082</v>
+        <v>55080</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Consumption MB</v>
+        <v>Closing Stock</v>
       </c>
       <c r="B14">
-        <v>887</v>
+        <v>2815</v>
       </c>
       <c r="C14" t="str">
-        <v>217.14</v>
+        <v>236.50</v>
       </c>
       <c r="D14">
-        <v>192599</v>
-      </c>
-      <c r="E14">
-        <v>1084.9</v>
-      </c>
-      <c r="F14" t="str">
-        <v>259.66</v>
-      </c>
-      <c r="G14">
-        <v>281708.1</v>
+        <v>665754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Consumption MB</v>
+      </c>
+      <c r="B15">
+        <v>1242.6999999999998</v>
+      </c>
+      <c r="C15" t="str">
+        <v>221.63</v>
+      </c>
+      <c r="D15">
+        <v>275419.80000000005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>CP</v>
-      </c>
-      <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Opening Stock</v>
-      </c>
-      <c r="B17">
-        <v>46</v>
+        <v>CP</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
       </c>
       <c r="C17" t="str">
-        <v>2247.35</v>
-      </c>
-      <c r="D17">
-        <v>103378</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-      <c r="F17" t="str">
-        <v>2243.67</v>
-      </c>
-      <c r="G17">
-        <v>100965</v>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Purchase</v>
+        <v>Opening Stock</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1175.23</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>81091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Closing Stock</v>
+        <v>Purchase</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C19" t="str">
-        <v>2243.67</v>
+        <v>1877.14</v>
       </c>
       <c r="D19">
-        <v>100965</v>
-      </c>
-      <c r="E19">
-        <v>45</v>
-      </c>
-      <c r="F19" t="str">
-        <v>2243.69</v>
-      </c>
-      <c r="G19">
-        <v>100966</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Consumption CP</v>
+        <v>Closing Stock</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C20" t="str">
-        <v>2413.00</v>
+        <v>1181.07</v>
       </c>
       <c r="D20">
-        <v>2413</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
+        <v>86218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>Consumption CP</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2671.00</v>
+      </c>
+      <c r="D21">
+        <v>8013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>RM Consumption</v>
-      </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Opening Stock</v>
-      </c>
-      <c r="B23">
-        <v>166266</v>
+        <v>RM Consumption</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
       </c>
       <c r="C23" t="str">
-        <v>103.53</v>
-      </c>
-      <c r="D23">
-        <v>17212806</v>
-      </c>
-      <c r="E23">
-        <v>176401</v>
-      </c>
-      <c r="F23" t="str">
-        <v>101.94</v>
-      </c>
-      <c r="G23">
-        <v>17981704</v>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Purchase</v>
+        <v>Opening Stock</v>
       </c>
       <c r="B24">
-        <v>114648</v>
+        <v>207057</v>
       </c>
       <c r="C24" t="str">
-        <v>93.17</v>
+        <v>100.24</v>
       </c>
       <c r="D24">
-        <v>10681581</v>
-      </c>
-      <c r="E24">
-        <v>142379.9</v>
-      </c>
-      <c r="F24" t="str">
-        <v>92.05</v>
-      </c>
-      <c r="G24">
-        <v>13105538.639999999</v>
+        <v>20755029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Sales</v>
+        <v>Purchase</v>
       </c>
       <c r="B25">
-        <v>37950</v>
+        <v>111581.7</v>
       </c>
       <c r="C25" t="str">
-        <v>94.63</v>
+        <v>94.68</v>
       </c>
       <c r="D25">
-        <v>3591209</v>
-      </c>
-      <c r="E25">
-        <v>54225</v>
-      </c>
-      <c r="F25" t="str">
-        <v>90.36</v>
-      </c>
-      <c r="G25">
-        <v>4899771</v>
+        <v>10564778.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Closing Stock</v>
+        <v>Sales</v>
       </c>
       <c r="B26">
-        <v>176401</v>
+        <v>39205</v>
       </c>
       <c r="C26" t="str">
-        <v>101.94</v>
+        <v>97.26</v>
       </c>
       <c r="D26">
-        <v>17981704</v>
-      </c>
-      <c r="E26">
-        <v>193921</v>
-      </c>
-      <c r="F26" t="str">
-        <v>100.41</v>
-      </c>
-      <c r="G26">
-        <v>19471496</v>
+        <v>3813120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Consumption RM</v>
+        <v>Closing Stock</v>
       </c>
       <c r="B27">
-        <v>66563</v>
+        <v>199573</v>
       </c>
       <c r="C27" t="str">
-        <v>94.97</v>
+        <v>100.88</v>
       </c>
       <c r="D27">
-        <v>6321474</v>
-      </c>
-      <c r="E27">
-        <v>70634.90000000002</v>
-      </c>
-      <c r="F27" t="str">
-        <v>95.08</v>
-      </c>
-      <c r="G27">
-        <v>6715975.640000001</v>
+        <v>20132197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>Consumption RM</v>
+      </c>
+      <c r="B28">
+        <v>79860.70000000001</v>
+      </c>
+      <c r="C28" t="str">
+        <v>92.34</v>
+      </c>
+      <c r="D28">
+        <v>7374490.800000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Monofilament</v>
-      </c>
-      <c r="B29" t="str">
-        <v/>
-      </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Yarn Purchases</v>
-      </c>
-      <c r="B30">
-        <v>7124</v>
+        <v>Monofilament</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
       </c>
       <c r="C30" t="str">
-        <v>120.79</v>
-      </c>
-      <c r="D30">
-        <v>860500</v>
-      </c>
-      <c r="E30">
-        <v>11150</v>
-      </c>
-      <c r="F30" t="str">
-        <v>123.65</v>
-      </c>
-      <c r="G30">
-        <v>1378750</v>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Purchase Fabric</v>
+        <v>Yarn Purchases</v>
       </c>
       <c r="B31">
-        <v>21761</v>
+        <v>20175</v>
       </c>
       <c r="C31" t="str">
-        <v>222.19</v>
+        <v>120.56</v>
       </c>
       <c r="D31">
-        <v>4835026.7</v>
-      </c>
-      <c r="E31">
-        <v>13264.52</v>
-      </c>
-      <c r="F31" t="str">
-        <v>227.57</v>
-      </c>
-      <c r="G31">
-        <v>3018545.8</v>
+        <v>2432350</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Consumables Purchase</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+        <v>Purchase Fabric</v>
+      </c>
+      <c r="B32">
+        <v>23650.59</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>236.49</v>
       </c>
       <c r="D32">
-        <v>373440.32</v>
-      </c>
-      <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32">
-        <v>252347.47</v>
+        <v>5593162.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Total Purchase</v>
-      </c>
-      <c r="B33">
-        <v>28885</v>
+        <v>Consumables Purchase</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>210.11</v>
+        <v/>
       </c>
       <c r="D33">
-        <v>6068967.0200000005</v>
-      </c>
-      <c r="E33">
-        <v>24414.52</v>
-      </c>
-      <c r="F33" t="str">
-        <v>190.45</v>
-      </c>
-      <c r="G33">
-        <v>4649643.27</v>
+        <v>359214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Consumption Monofil</v>
+        <v>Total Purchase</v>
       </c>
       <c r="B34">
-        <v>28885</v>
+        <v>43825.59</v>
       </c>
       <c r="C34" t="str">
-        <v>210.11</v>
+        <v>191.32</v>
       </c>
       <c r="D34">
-        <v>6068967.0200000005</v>
-      </c>
-      <c r="E34">
-        <v>24414.52</v>
-      </c>
-      <c r="F34" t="str">
-        <v>190.45</v>
-      </c>
-      <c r="G34">
-        <v>4649643.27</v>
+        <v>8384726.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Monofil Consumption</v>
+        <v>Consumption Monofil</v>
       </c>
       <c r="B35">
-        <v>95448</v>
+        <v>43825.59</v>
       </c>
       <c r="C35" t="str">
-        <v>129.81</v>
+        <v>191.32</v>
       </c>
       <c r="D35">
-        <v>12390441.02</v>
-      </c>
-      <c r="E35">
-        <v>95049.42000000003</v>
-      </c>
-      <c r="F35" t="str">
-        <v>119.58</v>
-      </c>
-      <c r="G35">
-        <v>11365618.91</v>
+        <v>8384726.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v/>
+        <v>Monofil Consumption</v>
+      </c>
+      <c r="B36">
+        <v>123686.29000000001</v>
+      </c>
+      <c r="C36" t="str">
+        <v>127.41</v>
+      </c>
+      <c r="D36">
+        <v>15759217.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Total COGS</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
-      </c>
-      <c r="C37" t="str">
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <v/>
-      </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Opening Stock</v>
-      </c>
-      <c r="B38">
-        <v>166266</v>
+        <v>Total COGS</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>103.53</v>
-      </c>
-      <c r="D38">
-        <v>17212806</v>
-      </c>
-      <c r="E38">
-        <v>176401</v>
-      </c>
-      <c r="F38" t="str">
-        <v>101.94</v>
-      </c>
-      <c r="G38">
-        <v>17981704</v>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Purchase HD</v>
+        <v>Opening Stock</v>
       </c>
       <c r="B39">
-        <v>113950</v>
+        <v>207057</v>
       </c>
       <c r="C39" t="str">
-        <v>92.38</v>
+        <v>100.24</v>
       </c>
       <c r="D39">
-        <v>10526640</v>
-      </c>
-      <c r="E39">
-        <v>141125</v>
-      </c>
-      <c r="F39" t="str">
-        <v>90.99</v>
-      </c>
-      <c r="G39">
-        <v>12840665.54</v>
+        <v>20755029</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Purchase MD</v>
+        <v>Purchase HD</v>
       </c>
       <c r="B40">
-        <v>698</v>
+        <v>110000</v>
       </c>
       <c r="C40" t="str">
-        <v>221.98</v>
+        <v>92.57</v>
       </c>
       <c r="D40">
-        <v>154941</v>
-      </c>
-      <c r="E40">
-        <v>1254.9</v>
-      </c>
-      <c r="F40" t="str">
-        <v>211.07</v>
-      </c>
-      <c r="G40">
-        <v>264873.1</v>
+        <v>10182400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Purchase Monofil</v>
+        <v>Purchase MD</v>
       </c>
       <c r="B41">
-        <v>7124</v>
+        <v>1574.7</v>
       </c>
       <c r="C41" t="str">
-        <v>120.79</v>
+        <v>234.48</v>
       </c>
       <c r="D41">
-        <v>860500</v>
-      </c>
-      <c r="E41">
-        <v>11150</v>
-      </c>
-      <c r="F41" t="str">
-        <v>123.65</v>
-      </c>
-      <c r="G41">
-        <v>1378750</v>
+        <v>369238.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>RM Sales</v>
+        <v>Purchase Monofil Yarn</v>
       </c>
       <c r="B42">
-        <v>37950</v>
+        <v>20175</v>
       </c>
       <c r="C42" t="str">
-        <v>94.63</v>
+        <v>120.56</v>
       </c>
       <c r="D42">
-        <v>3591209</v>
-      </c>
-      <c r="E42">
-        <v>54225</v>
-      </c>
-      <c r="F42" t="str">
-        <v>90.36</v>
-      </c>
-      <c r="G42">
-        <v>4899771</v>
+        <v>2432350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Closing Stock</v>
+        <v>Purchase Monofil Fabric</v>
       </c>
       <c r="B43">
-        <v>176401</v>
+        <v>23650.59</v>
       </c>
       <c r="C43" t="str">
-        <v>101.94</v>
+        <v>236.49</v>
       </c>
       <c r="D43">
-        <v>17981704</v>
-      </c>
-      <c r="E43">
-        <v>193921</v>
-      </c>
-      <c r="F43" t="str">
-        <v>100.41</v>
-      </c>
-      <c r="G43">
-        <v>19471496</v>
+        <v>5593162.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>RM Sales</v>
+      </c>
+      <c r="B44">
+        <v>39205</v>
+      </c>
+      <c r="C44" t="str">
+        <v>97.26</v>
+      </c>
+      <c r="D44">
+        <v>3813120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Monofil SFG/FG Opening Stock</v>
-      </c>
-      <c r="B45" t="str">
-        <v/>
+        <v>Closing Stock</v>
+      </c>
+      <c r="B45">
+        <v>199573</v>
       </c>
       <c r="C45" t="str">
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v/>
+        <v>100.88</v>
+      </c>
+      <c r="D45">
+        <v>20132197</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SFG Yarn</v>
-      </c>
-      <c r="B46">
-        <v>98075</v>
-      </c>
-      <c r="C46" t="str">
-        <v>165.00</v>
-      </c>
-      <c r="D46">
-        <v>16182375</v>
-      </c>
-      <c r="E46">
-        <v>106845</v>
-      </c>
-      <c r="F46" t="str">
-        <v>164.00</v>
-      </c>
-      <c r="G46">
-        <v>17522580</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>FG Fabric</v>
-      </c>
-      <c r="B47">
-        <v>294635</v>
+        <v>Monofil SFG/FG Opening Stock</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
       </c>
       <c r="C47" t="str">
-        <v>229.00</v>
-      </c>
-      <c r="D47">
-        <v>67471415</v>
-      </c>
-      <c r="E47">
-        <v>286265</v>
-      </c>
-      <c r="F47" t="str">
-        <v>228.00</v>
-      </c>
-      <c r="G47">
-        <v>65268420</v>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v/>
+        <v>SFG Yarn</v>
+      </c>
+      <c r="B48">
+        <v>121243</v>
+      </c>
+      <c r="C48" t="str">
+        <v>155.00</v>
+      </c>
+      <c r="D48">
+        <v>18792665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Monofil SFG/FG Purchase</v>
-      </c>
-      <c r="B49" t="str">
-        <v/>
+        <v>FG Fabric</v>
+      </c>
+      <c r="B49">
+        <v>264905</v>
       </c>
       <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <v/>
-      </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <v/>
+        <v>221.00</v>
+      </c>
+      <c r="D49">
+        <v>58544005</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>SFG Yarn</v>
-      </c>
-      <c r="B50">
-        <v>7124</v>
-      </c>
-      <c r="C50" t="str">
-        <v>120.79</v>
-      </c>
-      <c r="D50">
-        <v>860500</v>
-      </c>
-      <c r="E50">
-        <v>11150</v>
-      </c>
-      <c r="F50" t="str">
-        <v>123.65</v>
-      </c>
-      <c r="G50">
-        <v>1378750</v>
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>FG Fabric</v>
-      </c>
-      <c r="B51">
-        <v>21761</v>
+        <v>Monofil SFG/FG Purchase</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>222.19</v>
-      </c>
-      <c r="D51">
-        <v>4835026.7</v>
-      </c>
-      <c r="E51">
-        <v>13264.52</v>
-      </c>
-      <c r="F51" t="str">
-        <v>227.57</v>
-      </c>
-      <c r="G51">
-        <v>3018545.8</v>
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Consumables</v>
-      </c>
-      <c r="B52" t="str">
-        <v/>
+        <v>SFG Yarn</v>
+      </c>
+      <c r="B52">
+        <v>20175</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>120.56</v>
       </c>
       <c r="D52">
-        <v>373440.32</v>
-      </c>
-      <c r="E52" t="str">
-        <v/>
-      </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52">
-        <v>252347.47</v>
+        <v>2432350</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>FG Fabric</v>
+      </c>
+      <c r="B53">
+        <v>23650.59</v>
+      </c>
+      <c r="C53" t="str">
+        <v>236.49</v>
+      </c>
+      <c r="D53">
+        <v>5593162.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Monofil SFG/FG Closing Stock</v>
+        <v>Consumables</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -1497,165 +1098,182 @@
       <c r="C54" t="str">
         <v/>
       </c>
-      <c r="D54" t="str">
-        <v/>
-      </c>
-      <c r="E54" t="str">
-        <v/>
-      </c>
-      <c r="F54" t="str">
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <v/>
+      <c r="D54">
+        <v>359214</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>SFG Yarn</v>
-      </c>
-      <c r="B55">
-        <v>106845</v>
-      </c>
-      <c r="C55" t="str">
-        <v>164.00</v>
-      </c>
-      <c r="D55">
-        <v>17522580</v>
-      </c>
-      <c r="E55">
-        <v>105229</v>
-      </c>
-      <c r="F55" t="str">
-        <v>163.00</v>
-      </c>
-      <c r="G55">
-        <v>17152327</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>FG Fabric</v>
-      </c>
-      <c r="B56">
-        <v>286265</v>
+        <v>Monofil SFG/FG Closing Stock</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
       </c>
       <c r="C56" t="str">
-        <v>228.00</v>
-      </c>
-      <c r="D56">
-        <v>65268420</v>
-      </c>
-      <c r="E56">
-        <v>263759</v>
-      </c>
-      <c r="F56" t="str">
-        <v>219.00</v>
-      </c>
-      <c r="G56">
-        <v>57763289</v>
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>SFG Yarn</v>
+      </c>
+      <c r="B57">
+        <v>119989</v>
+      </c>
+      <c r="C57" t="str">
+        <v>155.00</v>
+      </c>
+      <c r="D57">
+        <v>18598295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Trading COGS</v>
-      </c>
-      <c r="B58" t="str">
-        <v/>
+        <v>FG Fabric</v>
+      </c>
+      <c r="B58">
+        <v>256633</v>
       </c>
       <c r="C58" t="str">
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <v/>
-      </c>
-      <c r="F58" t="str">
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <v/>
+        <v>220.00</v>
+      </c>
+      <c r="D58">
+        <v>56459260</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Opening Stock</v>
-      </c>
-      <c r="B59">
-        <v>848</v>
-      </c>
-      <c r="C59" t="str">
-        <v>218.01</v>
-      </c>
-      <c r="D59">
-        <v>184872</v>
-      </c>
-      <c r="E59">
-        <v>1576</v>
-      </c>
-      <c r="F59" t="str">
-        <v>300.33</v>
-      </c>
-      <c r="G59">
-        <v>473318</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Closing Stock</v>
-      </c>
-      <c r="B60">
-        <v>1576</v>
+        <v>Trading COGS</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
       </c>
       <c r="C60" t="str">
-        <v>300.33</v>
-      </c>
-      <c r="D60">
-        <v>473318</v>
-      </c>
-      <c r="E60">
-        <v>1056</v>
-      </c>
-      <c r="F60" t="str">
-        <v>200.96</v>
-      </c>
-      <c r="G60">
-        <v>212214</v>
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>Opening Stock</v>
+      </c>
+      <c r="B61">
+        <v>943</v>
+      </c>
+      <c r="C61" t="str">
+        <v>194.43</v>
+      </c>
+      <c r="D61">
+        <v>183346</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Closing Stock</v>
+      </c>
+      <c r="B62">
+        <v>959</v>
+      </c>
+      <c r="C62" t="str">
+        <v>196.12</v>
+      </c>
+      <c r="D62">
+        <v>188080</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
         <v>Difference Stock</v>
       </c>
-      <c r="B61">
-        <v>728</v>
-      </c>
-      <c r="C61" t="str">
-        <v>396.22</v>
-      </c>
-      <c r="D61">
-        <v>288446</v>
-      </c>
-      <c r="E61">
-        <v>520</v>
-      </c>
-      <c r="F61" t="str">
-        <v>502.12</v>
-      </c>
-      <c r="G61">
-        <v>261104</v>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63" t="str">
+        <v>295.88</v>
+      </c>
+      <c r="D63">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Difference in stocks</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Monofil</v>
+      </c>
+      <c r="B66">
+        <v>9526</v>
+      </c>
+      <c r="C66" t="str">
+        <v>239.25</v>
+      </c>
+      <c r="D66">
+        <v>2279115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Trading</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67" t="str">
+        <v>295.88</v>
+      </c>
+      <c r="D67">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Total Difference in stocks</v>
+      </c>
+      <c r="B68">
+        <v>9542</v>
+      </c>
+      <c r="C68" t="str">
+        <v>239.35</v>
+      </c>
+      <c r="D68">
+        <v>2283849</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D68"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/COGS.xlsx
+++ b/COGS.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -884,7 +884,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Total COGS</v>
+        <v>Trading Consumption</v>
       </c>
       <c r="B38" t="str">
         <v/>
@@ -898,100 +898,100 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Opening Stock</v>
+        <v>opening stock</v>
       </c>
       <c r="B39">
-        <v>207057</v>
+        <v>943</v>
       </c>
       <c r="C39" t="str">
-        <v>100.24</v>
+        <v>194.43</v>
       </c>
       <c r="D39">
-        <v>20755029</v>
+        <v>183346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Purchase HD</v>
+        <v>Add: Purchases</v>
       </c>
       <c r="B40">
-        <v>110000</v>
+        <v>9780</v>
       </c>
       <c r="C40" t="str">
-        <v>92.57</v>
+        <v>158.82</v>
       </c>
       <c r="D40">
-        <v>10182400</v>
+        <v>1553245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Purchase MD</v>
-      </c>
-      <c r="B41">
-        <v>1574.7</v>
+        <v>Add: Job Work Rcpts</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
       </c>
       <c r="C41" t="str">
-        <v>234.48</v>
-      </c>
-      <c r="D41">
-        <v>369238.8</v>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Purchase Monofil Yarn</v>
-      </c>
-      <c r="B42">
-        <v>20175</v>
+        <v>Less: Purchase Return</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
       </c>
       <c r="C42" t="str">
-        <v>120.56</v>
-      </c>
-      <c r="D42">
-        <v>2432350</v>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Purchase Monofil Fabric</v>
-      </c>
-      <c r="B43">
-        <v>23650.59</v>
+        <v>Less: Sales</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
       </c>
       <c r="C43" t="str">
-        <v>236.49</v>
-      </c>
-      <c r="D43">
-        <v>5593162.6</v>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>RM Sales</v>
+        <v>Closing Stock</v>
       </c>
       <c r="B44">
-        <v>39205</v>
+        <v>959</v>
       </c>
       <c r="C44" t="str">
-        <v>97.26</v>
+        <v>196.12</v>
       </c>
       <c r="D44">
-        <v>3813120</v>
+        <v>188080</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Closing Stock</v>
+        <v>Consumption Trading</v>
       </c>
       <c r="B45">
-        <v>199573</v>
+        <v>9764</v>
       </c>
       <c r="C45" t="str">
-        <v>100.88</v>
+        <v>158.59</v>
       </c>
       <c r="D45">
-        <v>20132197</v>
+        <v>1548511</v>
       </c>
     </row>
     <row r="46">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Monofil SFG/FG Opening Stock</v>
+        <v>Total COGS</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -1015,91 +1015,100 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SFG Yarn</v>
+        <v>Opening Stock</v>
       </c>
       <c r="B48">
-        <v>121243</v>
+        <v>207057</v>
       </c>
       <c r="C48" t="str">
-        <v>155.00</v>
+        <v>100.24</v>
       </c>
       <c r="D48">
-        <v>18792665</v>
+        <v>20755029</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>FG Fabric</v>
+        <v>Purchase HD</v>
       </c>
       <c r="B49">
-        <v>264905</v>
+        <v>110000</v>
       </c>
       <c r="C49" t="str">
-        <v>221.00</v>
+        <v>92.57</v>
       </c>
       <c r="D49">
-        <v>58544005</v>
+        <v>10182400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>Purchase MD</v>
+      </c>
+      <c r="B50">
+        <v>1574.7</v>
+      </c>
+      <c r="C50" t="str">
+        <v>234.48</v>
+      </c>
+      <c r="D50">
+        <v>369238.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Monofil SFG/FG Purchase</v>
-      </c>
-      <c r="B51" t="str">
-        <v/>
+        <v>Purchase Monofil Yarn</v>
+      </c>
+      <c r="B51">
+        <v>20175</v>
       </c>
       <c r="C51" t="str">
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <v/>
+        <v>120.56</v>
+      </c>
+      <c r="D51">
+        <v>2432350</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>SFG Yarn</v>
+        <v>Purchase Monofil Fabric</v>
       </c>
       <c r="B52">
-        <v>20175</v>
+        <v>23650.59</v>
       </c>
       <c r="C52" t="str">
-        <v>120.56</v>
+        <v>236.49</v>
       </c>
       <c r="D52">
-        <v>2432350</v>
+        <v>5593162.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>FG Fabric</v>
+        <v>RM Sales</v>
       </c>
       <c r="B53">
-        <v>23650.59</v>
+        <v>39205</v>
       </c>
       <c r="C53" t="str">
-        <v>236.49</v>
+        <v>97.26</v>
       </c>
       <c r="D53">
-        <v>5593162.6</v>
+        <v>3813120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Consumables</v>
-      </c>
-      <c r="B54" t="str">
-        <v/>
+        <v>Closing Stock</v>
+      </c>
+      <c r="B54">
+        <v>199573</v>
       </c>
       <c r="C54" t="str">
-        <v/>
+        <v>100.88</v>
       </c>
       <c r="D54">
-        <v>359214</v>
+        <v>20132197</v>
       </c>
     </row>
     <row r="55">
@@ -1109,7 +1118,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Monofil SFG/FG Closing Stock</v>
+        <v>Monofil SFG/FG Opening Stock</v>
       </c>
       <c r="B56" t="str">
         <v/>
@@ -1126,13 +1135,13 @@
         <v>SFG Yarn</v>
       </c>
       <c r="B57">
-        <v>119989</v>
+        <v>121243</v>
       </c>
       <c r="C57" t="str">
         <v>155.00</v>
       </c>
       <c r="D57">
-        <v>18598295</v>
+        <v>18792665</v>
       </c>
     </row>
     <row r="58">
@@ -1140,13 +1149,13 @@
         <v>FG Fabric</v>
       </c>
       <c r="B58">
-        <v>256633</v>
+        <v>264905</v>
       </c>
       <c r="C58" t="str">
-        <v>220.00</v>
+        <v>221.00</v>
       </c>
       <c r="D58">
-        <v>56459260</v>
+        <v>58544005</v>
       </c>
     </row>
     <row r="59">
@@ -1156,7 +1165,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Trading COGS</v>
+        <v>Monofil SFG/FG Purchase</v>
       </c>
       <c r="B60" t="str">
         <v/>
@@ -1170,44 +1179,44 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Opening Stock</v>
+        <v>SFG Yarn</v>
       </c>
       <c r="B61">
-        <v>943</v>
+        <v>20175</v>
       </c>
       <c r="C61" t="str">
-        <v>194.43</v>
+        <v>120.56</v>
       </c>
       <c r="D61">
-        <v>183346</v>
+        <v>2432350</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Closing Stock</v>
+        <v>FG Fabric</v>
       </c>
       <c r="B62">
-        <v>959</v>
+        <v>23650.59</v>
       </c>
       <c r="C62" t="str">
-        <v>196.12</v>
+        <v>236.49</v>
       </c>
       <c r="D62">
-        <v>188080</v>
+        <v>5593162.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Difference Stock</v>
-      </c>
-      <c r="B63">
-        <v>16</v>
+        <v>Consumables</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
       </c>
       <c r="C63" t="str">
-        <v>295.88</v>
+        <v/>
       </c>
       <c r="D63">
-        <v>4734</v>
+        <v>359214</v>
       </c>
     </row>
     <row r="64">
@@ -1217,7 +1226,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Difference in stocks</v>
+        <v>Monofil SFG/FG Closing Stock</v>
       </c>
       <c r="B65" t="str">
         <v/>
@@ -1231,49 +1240,157 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Monofil</v>
+        <v>SFG Yarn</v>
       </c>
       <c r="B66">
-        <v>9526</v>
+        <v>119989</v>
       </c>
       <c r="C66" t="str">
-        <v>239.25</v>
+        <v>155.00</v>
       </c>
       <c r="D66">
-        <v>2279115</v>
+        <v>18598295</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Trading</v>
+        <v>FG Fabric</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>256633</v>
       </c>
       <c r="C67" t="str">
-        <v>295.88</v>
+        <v>220.00</v>
       </c>
       <c r="D67">
-        <v>4734</v>
+        <v>56459260</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Trading COGS</v>
+      </c>
+      <c r="B69" t="str">
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Opening Stock</v>
+      </c>
+      <c r="B70">
+        <v>943</v>
+      </c>
+      <c r="C70" t="str">
+        <v>194.43</v>
+      </c>
+      <c r="D70">
+        <v>183346</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Closing Stock</v>
+      </c>
+      <c r="B71">
+        <v>959</v>
+      </c>
+      <c r="C71" t="str">
+        <v>196.12</v>
+      </c>
+      <c r="D71">
+        <v>188080</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Difference Stock</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="str">
+        <v>295.88</v>
+      </c>
+      <c r="D72">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Difference in stocks</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Monofil</v>
+      </c>
+      <c r="B75">
+        <v>9526</v>
+      </c>
+      <c r="C75" t="str">
+        <v>239.25</v>
+      </c>
+      <c r="D75">
+        <v>2279115</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Trading</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76" t="str">
+        <v>295.88</v>
+      </c>
+      <c r="D76">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
         <v>Total Difference in stocks</v>
       </c>
-      <c r="B68">
+      <c r="B77">
         <v>9542</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C77" t="str">
         <v>239.35</v>
       </c>
-      <c r="D68">
+      <c r="D77">
         <v>2283849</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D68"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D77"/>
   </ignoredErrors>
 </worksheet>
 </file>